--- a/public/format_import_user.xlsx
+++ b/public/format_import_user.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\stp2k\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AFE936-7AB2-4096-8E1F-C34AC2F97A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160B5152-D8D9-43B3-A094-3839FE29DED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73663314-A0BC-4D45-B5BE-33E615AD572F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Indra Kusuma, S.Kom.</t>
   </si>
@@ -49,16 +49,13 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>HAPUS BARIS PERTAMA SEBELUM IMPORT DATA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,27 +79,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -133,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -143,7 +126,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A3EBAF-38FD-4F71-8019-18EF75A666E7}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +453,9 @@
     <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -487,11 +468,8 @@
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
     </row>
   </sheetData>
